--- a/Traditional power demand of test system 1.xlsx
+++ b/Traditional power demand of test system 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neuqeducn-my.sharepoint.com/personal/qiaowenjie_neuq_edu_cn/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\GithubClone\supplementary files of collaborative operation of IES and TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DA82427541F7ACA7EB830A00F368E6AE8DE11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE5A983-D56D-4FE6-82BC-1A062376722E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12642B67-34F9-4823-866B-FC086423497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="41174" windowHeight="22550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +556,10 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="N2">
-        <v>4.4677179999999996</v>
+        <v>5.4677179999999996</v>
       </c>
       <c r="O2">
-        <v>4.4773870000000002</v>
+        <v>5.6678980000000001</v>
       </c>
       <c r="P2">
         <v>4.4599979999999997</v>
@@ -642,40 +642,40 @@
         <v>2.8360000000000003</v>
       </c>
       <c r="N3">
-        <v>2.5835710000000001</v>
+        <v>6.5835710000000001</v>
       </c>
       <c r="O3">
-        <v>2.6423860000000001</v>
+        <v>6.9815709999999997</v>
       </c>
       <c r="P3">
-        <v>2.644781</v>
+        <v>6.644781</v>
       </c>
       <c r="Q3">
-        <v>2.6260300000000001</v>
+        <v>3.6260300000000001</v>
       </c>
       <c r="R3">
-        <v>2.6386110000000005</v>
+        <v>4.638611</v>
       </c>
       <c r="S3">
-        <v>2.5948349999999998</v>
+        <v>4.5948349999999998</v>
       </c>
       <c r="T3">
-        <v>2.551031</v>
+        <v>4.551031</v>
       </c>
       <c r="U3">
-        <v>2.5330889999999999</v>
+        <v>6.5330890000000004</v>
       </c>
       <c r="V3">
-        <v>2.5338409999999998</v>
+        <v>7.5338409999999998</v>
       </c>
       <c r="W3">
-        <v>2.5259360000000002</v>
+        <v>6.5259359999999997</v>
       </c>
       <c r="X3">
-        <v>2.7134359999999997</v>
+        <v>5.7134359999999997</v>
       </c>
       <c r="Y3">
-        <v>2.7164040000000003</v>
+        <v>5.7164039999999998</v>
       </c>
       <c r="AA3" s="1">
         <v>1</v>
@@ -728,40 +728,40 @@
         <v>2.3670000000000004</v>
       </c>
       <c r="N4">
-        <v>1.9306860000000001</v>
+        <v>4.9306859999999997</v>
       </c>
       <c r="O4">
-        <v>1.9736879999999999</v>
+        <v>5.9298700000000002</v>
       </c>
       <c r="P4">
-        <v>1.97394</v>
+        <v>5.9739399999999998</v>
       </c>
       <c r="Q4">
-        <v>1.9624780000000002</v>
+        <v>7.9624779999999999</v>
       </c>
       <c r="R4">
-        <v>1.9695199999999999</v>
+        <v>6.9695200000000002</v>
       </c>
       <c r="S4">
-        <v>1.938709</v>
+        <v>5.9387090000000002</v>
       </c>
       <c r="T4">
-        <v>1.906121</v>
+        <v>6.9061209999999997</v>
       </c>
       <c r="U4">
-        <v>1.8890710000000002</v>
+        <v>6.8890710000000004</v>
       </c>
       <c r="V4">
-        <v>1.8887510000000001</v>
+        <v>7.8887510000000001</v>
       </c>
       <c r="W4">
-        <v>1.8981060000000001</v>
+        <v>9.8981060000000003</v>
       </c>
       <c r="X4">
-        <v>1.9981059999999999</v>
+        <v>5.9981059999999999</v>
       </c>
       <c r="Y4">
-        <v>2.0189879999999998</v>
+        <v>6.0189880000000002</v>
       </c>
       <c r="AA4" s="1">
         <v>2</v>
@@ -814,40 +814,40 @@
         <v>3.0540000000000003</v>
       </c>
       <c r="N5">
-        <v>0.2949</v>
+        <v>5.2949000000000002</v>
       </c>
       <c r="O5">
-        <v>0.29580000000000001</v>
+        <v>5.3459000000000003</v>
       </c>
       <c r="P5">
-        <v>0.29630000000000001</v>
+        <v>4.2962999999999996</v>
       </c>
       <c r="Q5">
-        <v>0.29580000000000001</v>
+        <v>5.2957999999999998</v>
       </c>
       <c r="R5">
-        <v>0.29620000000000002</v>
+        <v>5.2961999999999998</v>
       </c>
       <c r="S5">
-        <v>0.29210000000000003</v>
+        <v>5.2920999999999996</v>
       </c>
       <c r="T5">
-        <v>0.28850000000000003</v>
+        <v>6.2885</v>
       </c>
       <c r="U5">
-        <v>0.29110000000000003</v>
+        <v>6.2911000000000001</v>
       </c>
       <c r="V5">
-        <v>0.28500000000000003</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="W5">
-        <v>0.27460000000000001</v>
+        <v>5.2746000000000004</v>
       </c>
       <c r="X5">
-        <v>0.25190000000000001</v>
+        <v>6.2519</v>
       </c>
       <c r="Y5">
-        <v>0.23</v>
+        <v>8.23</v>
       </c>
       <c r="AA5" s="1">
         <v>3</v>
@@ -900,40 +900,40 @@
         <v>3.3280000000000003</v>
       </c>
       <c r="N6">
-        <v>0.40640000000000004</v>
+        <v>4.4063999999999997</v>
       </c>
       <c r="O6">
-        <v>0.43590000000000007</v>
+        <v>4.9874000000000001</v>
       </c>
       <c r="P6">
-        <v>0.44159999999999999</v>
+        <v>6.4416000000000002</v>
       </c>
       <c r="Q6">
-        <v>0.43700000000000006</v>
+        <v>7.4370000000000003</v>
       </c>
       <c r="R6">
-        <v>0.43950000000000006</v>
+        <v>5.4394999999999998</v>
       </c>
       <c r="S6">
-        <v>0.40229999999999999</v>
+        <v>6.4023000000000003</v>
       </c>
       <c r="T6">
-        <v>0.47320000000000001</v>
+        <v>6.4732000000000003</v>
       </c>
       <c r="U6">
-        <v>0.39040000000000002</v>
+        <v>5.3903999999999996</v>
       </c>
       <c r="V6">
-        <v>0.34820000000000001</v>
+        <v>6.3482000000000003</v>
       </c>
       <c r="W6">
-        <v>0.25260000000000005</v>
+        <v>5.2526000000000002</v>
       </c>
       <c r="X6">
-        <v>0.2555</v>
+        <v>6.2554999999999996</v>
       </c>
       <c r="Y6">
-        <v>0.27179999999999999</v>
+        <v>4.2717999999999998</v>
       </c>
       <c r="AA6" s="1">
         <v>4</v>
@@ -986,40 +986,40 @@
         <v>3.661</v>
       </c>
       <c r="N7">
-        <v>0.4204</v>
+        <v>7.4203999999999999</v>
       </c>
       <c r="O7">
-        <v>0.42310000000000003</v>
+        <v>7.2340400000000002</v>
       </c>
       <c r="P7">
-        <v>0.438</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="Q7">
-        <v>0.42210000000000003</v>
+        <v>6.4221000000000004</v>
       </c>
       <c r="R7">
-        <v>0.42330000000000001</v>
+        <v>4.4233000000000002</v>
       </c>
       <c r="S7">
-        <v>0.47850000000000004</v>
+        <v>6.4785000000000004</v>
       </c>
       <c r="T7">
-        <v>0.49719999999999998</v>
+        <v>5.4972000000000003</v>
       </c>
       <c r="U7">
-        <v>0.50060000000000004</v>
+        <v>6.5006000000000004</v>
       </c>
       <c r="V7">
-        <v>0.49780000000000002</v>
+        <v>5.4977999999999998</v>
       </c>
       <c r="W7">
-        <v>0.48180000000000001</v>
+        <v>4.4817999999999998</v>
       </c>
       <c r="X7">
-        <v>0.47380000000000005</v>
+        <v>4.4737999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.45850000000000002</v>
+        <v>5.4584999999999999</v>
       </c>
       <c r="AA7" s="1">
         <v>5</v>
@@ -1072,40 +1072,40 @@
         <v>3.7970000000000002</v>
       </c>
       <c r="N8">
-        <v>0.32040000000000002</v>
+        <v>3.3704000000000001</v>
       </c>
       <c r="O8">
-        <v>0.32310000000000005</v>
+        <v>3.3214000000000001</v>
       </c>
       <c r="P8">
-        <v>0.33799999999999997</v>
+        <v>5.3380000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.3221</v>
+        <v>4.3220999999999998</v>
       </c>
       <c r="R8">
-        <v>0.32329999999999998</v>
+        <v>7.3232999999999997</v>
       </c>
       <c r="S8">
-        <v>0.3785</v>
+        <v>4.3784999999999998</v>
       </c>
       <c r="T8">
-        <v>0.3972</v>
+        <v>4.3971999999999998</v>
       </c>
       <c r="U8">
-        <v>0.40060000000000001</v>
+        <v>4.4005999999999998</v>
       </c>
       <c r="V8">
-        <v>0.39780000000000004</v>
+        <v>4.3978000000000002</v>
       </c>
       <c r="W8">
-        <v>0.38180000000000003</v>
+        <v>4.3818000000000001</v>
       </c>
       <c r="X8">
-        <v>0.37380000000000002</v>
+        <v>4.3738000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.35850000000000004</v>
+        <v>4.3585000000000003</v>
       </c>
       <c r="AA8" s="1">
         <v>6</v>
@@ -1158,40 +1158,40 @@
         <v>8.9290000000000003</v>
       </c>
       <c r="N9">
-        <v>0.79989999999999994</v>
+        <v>5.7999000000000001</v>
       </c>
       <c r="O9">
-        <v>0.81579999999999997</v>
+        <v>5.9836900000000002</v>
       </c>
       <c r="P9">
-        <v>0.80130000000000001</v>
+        <v>3.8012999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.81579999999999997</v>
+        <v>5.8158000000000003</v>
       </c>
       <c r="R9">
-        <v>0.80520000000000003</v>
+        <v>5.8052000000000001</v>
       </c>
       <c r="S9">
-        <v>0.81610000000000005</v>
+        <v>5.8160999999999996</v>
       </c>
       <c r="T9">
-        <v>0.84550000000000003</v>
+        <v>6.8455000000000004</v>
       </c>
       <c r="U9">
-        <v>0.79310000000000003</v>
+        <v>5.7930999999999999</v>
       </c>
       <c r="V9">
-        <v>0.79500000000000004</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="W9">
-        <v>0.78459999999999996</v>
+        <v>3.3845999999999998</v>
       </c>
       <c r="X9">
-        <v>0.76190000000000002</v>
+        <v>5.7618999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.74099999999999999</v>
+        <v>5.5410000000000004</v>
       </c>
       <c r="AA9" s="1">
         <v>7</v>
@@ -1244,40 +1244,40 @@
         <v>1.52</v>
       </c>
       <c r="N10">
-        <v>5.04E-2</v>
+        <v>6.0503999999999998</v>
       </c>
       <c r="O10">
-        <v>5.3099999999999994E-2</v>
+        <v>5.3502000000000001</v>
       </c>
       <c r="P10">
-        <v>5.7999999999999996E-2</v>
+        <v>6.3579999999999997</v>
       </c>
       <c r="Q10">
-        <v>5.21E-2</v>
+        <v>5.0521000000000003</v>
       </c>
       <c r="R10">
-        <v>5.33E-2</v>
+        <v>6.0533000000000001</v>
       </c>
       <c r="S10">
-        <v>5.8499999999999996E-2</v>
+        <v>7.0585000000000004</v>
       </c>
       <c r="T10">
-        <v>5.7200000000000001E-2</v>
+        <v>6.0571999999999999</v>
       </c>
       <c r="U10">
-        <v>5.0599999999999999E-2</v>
+        <v>4.0506000000000002</v>
       </c>
       <c r="V10">
-        <v>5.7800000000000004E-2</v>
+        <v>3.0577999999999999</v>
       </c>
       <c r="W10">
-        <v>5.1799999999999999E-2</v>
+        <v>6.0518000000000001</v>
       </c>
       <c r="X10">
-        <v>5.3800000000000001E-2</v>
+        <v>7.0537999999999998</v>
       </c>
       <c r="Y10">
-        <v>5.8499999999999996E-2</v>
+        <v>6.0585000000000004</v>
       </c>
       <c r="AA10" s="1">
         <v>8</v>

--- a/Traditional power demand of test system 1.xlsx
+++ b/Traditional power demand of test system 1.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\GithubClone\supplementary files of collaborative operation of IES and TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12642B67-34F9-4823-866B-FC086423497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA29BF-9CC9-4171-8962-2F89AFB3A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="41174" windowHeight="22550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41158" yWindow="54" windowWidth="41481" windowHeight="22717" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy demand" sheetId="1" r:id="rId1"/>
+    <sheet name="Traffic demand" sheetId="2" r:id="rId2"/>
+    <sheet name="Transportation network data" sheetId="3" r:id="rId3"/>
+    <sheet name="IES data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t>h6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +93,374 @@
   </si>
   <si>
     <t>The demand holds the same across 12 hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1-&gt;T6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1-&gt;T10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1-&gt;T11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1-&gt;T12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4-&gt;T9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4-&gt;T12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3-&gt;T6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3-&gt;T10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3-&gt;T11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3-&gt;T12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4-&gt;T10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q_{EV,t}^{rs,Ori}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q_{NGV,t}^{rs,Ori}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q_{FV,t}^{rs,Ori}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic demand (in p.u.), and 1p.u. = 100 vehicles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1-&gt;T2</t>
+  </si>
+  <si>
+    <t>E2-&gt;T5</t>
+  </si>
+  <si>
+    <t>E3-&gt;T7</t>
+  </si>
+  <si>
+    <t>E4-&gt;T8</t>
+  </si>
+  <si>
+    <t>E5-&gt;T9</t>
+  </si>
+  <si>
+    <t>E6-&gt;T10</t>
+  </si>
+  <si>
+    <t>E7-&gt;T9</t>
+  </si>
+  <si>
+    <t>E8-&gt;T12</t>
+  </si>
+  <si>
+    <t>T1-&gt;I1</t>
+  </si>
+  <si>
+    <t>T1-&gt;T3</t>
+  </si>
+  <si>
+    <t>T1-&gt;T4</t>
+  </si>
+  <si>
+    <t>T11-&gt;I8</t>
+  </si>
+  <si>
+    <t>T12-&gt;T10</t>
+  </si>
+  <si>
+    <t>T2-&gt;T5</t>
+  </si>
+  <si>
+    <t>T2-&gt;T6</t>
+  </si>
+  <si>
+    <t>T3-&gt;I3</t>
+  </si>
+  <si>
+    <t>T3-&gt;T1</t>
+  </si>
+  <si>
+    <t>T3-&gt;T4</t>
+  </si>
+  <si>
+    <t>T4-&gt;I2</t>
+  </si>
+  <si>
+    <t>T4-&gt;I4</t>
+  </si>
+  <si>
+    <t>T5-&gt;I5</t>
+  </si>
+  <si>
+    <t>T5-&gt;T6</t>
+  </si>
+  <si>
+    <t>T6-&gt;I6</t>
+  </si>
+  <si>
+    <t>T7-&gt;T11</t>
+  </si>
+  <si>
+    <t>T7-&gt;T8</t>
+  </si>
+  <si>
+    <t>T8-&gt;I7</t>
+  </si>
+  <si>
+    <t>T8-&gt;T11</t>
+  </si>
+  <si>
+    <t>T9-&gt;T10</t>
+  </si>
+  <si>
+    <t>T9-&gt;T12</t>
+  </si>
+  <si>
+    <t>I1-&gt;E1</t>
+  </si>
+  <si>
+    <t>I2-&gt;E2</t>
+  </si>
+  <si>
+    <t>I3-&gt;E3</t>
+  </si>
+  <si>
+    <t>I4-&gt;E4</t>
+  </si>
+  <si>
+    <t>I5-&gt;E5</t>
+  </si>
+  <si>
+    <t>I6-&gt;E6</t>
+  </si>
+  <si>
+    <t>I7-&gt;E7</t>
+  </si>
+  <si>
+    <t>I8-&gt;E8</t>
+  </si>
+  <si>
+    <t>I1-&gt;C1-&gt;E1</t>
+  </si>
+  <si>
+    <t>I2-&gt;C2-&gt;E2</t>
+  </si>
+  <si>
+    <t>I3-&gt;C3-&gt;E3</t>
+  </si>
+  <si>
+    <t>I4-&gt;C4-&gt;E4</t>
+  </si>
+  <si>
+    <t>I5-&gt;C5-&gt;E5</t>
+  </si>
+  <si>
+    <t>I6-&gt;C6-&gt;E6</t>
+  </si>
+  <si>
+    <t>I7-&gt;C7-&gt;E7</t>
+  </si>
+  <si>
+    <t>I8-&gt;C8-&gt;E8</t>
+  </si>
+  <si>
+    <t>Links</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road capacity (p.u.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travel time (min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link length (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original links are extended, the method proposed in the following reference is adopted: Wei Wei, Lei Wu, Jianhui Wang, and Shengwei Mei. Network
+equilibrium of coupled transportation and power distribution systems. IEEE Transactions on Smart Grid, 9(6):6764–6779, 2018. doi:
+10.1109/TSG.2017.2723016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>U_min</t>
+  </si>
+  <si>
+    <t>U_max</t>
+  </si>
+  <si>
+    <t>a_{s}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_{s}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_{s}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pg_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pg_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qg_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qg_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>PDN data (in p.u.), and 1p.u. = 100MVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-&gt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-&gt;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-&gt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-&gt;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In-node temperature_min (℃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In-node temperature_max  (℃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out-node temperature_min  (℃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out-node temperature_max  (℃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline mass flow_min (ton)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline mass flow_max (ton)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node mass flow_min (ton)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node mass flow_max (ton)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHN data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas power input_min (p.u.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas power input_max (p.u.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline gas flow_min (m3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline gas flow_max (m3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node gas pressure_min (Mpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node gas pressure_max (Mpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGN data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,12 +484,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -143,6 +532,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,11 +840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1682,4 +2096,2981 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC440A1-B7D9-4082-884F-F1EB4D09AB62}">
+  <dimension ref="A1:AK15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>13.5</v>
+      </c>
+      <c r="U3">
+        <v>9</v>
+      </c>
+      <c r="V3">
+        <v>27</v>
+      </c>
+      <c r="W3">
+        <v>15</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>12</v>
+      </c>
+      <c r="AB3">
+        <v>36</v>
+      </c>
+      <c r="AC3">
+        <v>19.5</v>
+      </c>
+      <c r="AD3">
+        <v>13</v>
+      </c>
+      <c r="AE3">
+        <v>39</v>
+      </c>
+      <c r="AF3">
+        <v>21</v>
+      </c>
+      <c r="AG3">
+        <v>14</v>
+      </c>
+      <c r="AH3">
+        <v>42</v>
+      </c>
+      <c r="AI3">
+        <v>19.5</v>
+      </c>
+      <c r="AJ3">
+        <v>13</v>
+      </c>
+      <c r="AK3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>84</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>72</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>60</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>13.5</v>
+      </c>
+      <c r="V4">
+        <v>54</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>15</v>
+      </c>
+      <c r="Y4">
+        <v>60</v>
+      </c>
+      <c r="Z4">
+        <v>12</v>
+      </c>
+      <c r="AA4">
+        <v>18</v>
+      </c>
+      <c r="AB4">
+        <v>72</v>
+      </c>
+      <c r="AC4">
+        <v>13</v>
+      </c>
+      <c r="AD4">
+        <v>19.5</v>
+      </c>
+      <c r="AE4">
+        <v>78</v>
+      </c>
+      <c r="AF4">
+        <v>14</v>
+      </c>
+      <c r="AG4">
+        <v>21</v>
+      </c>
+      <c r="AH4">
+        <v>84</v>
+      </c>
+      <c r="AI4">
+        <v>13</v>
+      </c>
+      <c r="AJ4">
+        <v>19.5</v>
+      </c>
+      <c r="AK4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>56</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5">
+        <v>4.5</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>36</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>40</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>48</v>
+      </c>
+      <c r="AC5">
+        <v>6.5</v>
+      </c>
+      <c r="AD5">
+        <v>13</v>
+      </c>
+      <c r="AE5">
+        <v>52</v>
+      </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
+      <c r="AG5">
+        <v>14</v>
+      </c>
+      <c r="AH5">
+        <v>56</v>
+      </c>
+      <c r="AI5">
+        <v>6.5</v>
+      </c>
+      <c r="AJ5">
+        <v>13</v>
+      </c>
+      <c r="AK5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>48</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>13.5</v>
+      </c>
+      <c r="V6">
+        <v>36</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>15</v>
+      </c>
+      <c r="Y6">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>12</v>
+      </c>
+      <c r="AA6">
+        <v>18</v>
+      </c>
+      <c r="AB6">
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <v>13</v>
+      </c>
+      <c r="AD6">
+        <v>19.5</v>
+      </c>
+      <c r="AE6">
+        <v>52</v>
+      </c>
+      <c r="AF6">
+        <v>14</v>
+      </c>
+      <c r="AG6">
+        <v>21</v>
+      </c>
+      <c r="AH6">
+        <v>56</v>
+      </c>
+      <c r="AI6">
+        <v>13</v>
+      </c>
+      <c r="AJ6">
+        <v>19.5</v>
+      </c>
+      <c r="AK6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="C7">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I7">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>16.799999999999997</v>
+      </c>
+      <c r="L7">
+        <v>16.799999999999997</v>
+      </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O7">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>10.8</v>
+      </c>
+      <c r="U7">
+        <v>10.8</v>
+      </c>
+      <c r="V7">
+        <v>45</v>
+      </c>
+      <c r="W7">
+        <v>12</v>
+      </c>
+      <c r="X7">
+        <v>12</v>
+      </c>
+      <c r="Y7">
+        <v>50</v>
+      </c>
+      <c r="Z7">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>60</v>
+      </c>
+      <c r="AC7">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>65</v>
+      </c>
+      <c r="AF7">
+        <v>16.799999999999997</v>
+      </c>
+      <c r="AG7">
+        <v>16.799999999999997</v>
+      </c>
+      <c r="AH7">
+        <v>70</v>
+      </c>
+      <c r="AI7">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>40</v>
+      </c>
+      <c r="T8">
+        <v>4.5</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>36</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>40</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <v>48</v>
+      </c>
+      <c r="AC8">
+        <v>6.5</v>
+      </c>
+      <c r="AD8">
+        <v>13</v>
+      </c>
+      <c r="AE8">
+        <v>52</v>
+      </c>
+      <c r="AF8">
+        <v>7</v>
+      </c>
+      <c r="AG8">
+        <v>14</v>
+      </c>
+      <c r="AH8">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>6.5</v>
+      </c>
+      <c r="AJ8">
+        <v>13</v>
+      </c>
+      <c r="AK8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>13.5</v>
+      </c>
+      <c r="V9">
+        <v>27</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>15</v>
+      </c>
+      <c r="Y9">
+        <v>30</v>
+      </c>
+      <c r="Z9">
+        <v>12</v>
+      </c>
+      <c r="AA9">
+        <v>18</v>
+      </c>
+      <c r="AB9">
+        <v>36</v>
+      </c>
+      <c r="AC9">
+        <v>13</v>
+      </c>
+      <c r="AD9">
+        <v>19.5</v>
+      </c>
+      <c r="AE9">
+        <v>39</v>
+      </c>
+      <c r="AF9">
+        <v>14</v>
+      </c>
+      <c r="AG9">
+        <v>21</v>
+      </c>
+      <c r="AH9">
+        <v>42</v>
+      </c>
+      <c r="AI9">
+        <v>13</v>
+      </c>
+      <c r="AJ9">
+        <v>19.5</v>
+      </c>
+      <c r="AK9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <v>4.5</v>
+      </c>
+      <c r="U10">
+        <v>18</v>
+      </c>
+      <c r="V10">
+        <v>45</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <v>50</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>24</v>
+      </c>
+      <c r="AB10">
+        <v>60</v>
+      </c>
+      <c r="AC10">
+        <v>6.5</v>
+      </c>
+      <c r="AD10">
+        <v>26</v>
+      </c>
+      <c r="AE10">
+        <v>65</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>28</v>
+      </c>
+      <c r="AH10">
+        <v>70</v>
+      </c>
+      <c r="AI10">
+        <v>6.5</v>
+      </c>
+      <c r="AJ10">
+        <v>26</v>
+      </c>
+      <c r="AK10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>56</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>48</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <v>4.5</v>
+      </c>
+      <c r="U11">
+        <v>18</v>
+      </c>
+      <c r="V11">
+        <v>36</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>24</v>
+      </c>
+      <c r="AB11">
+        <v>48</v>
+      </c>
+      <c r="AC11">
+        <v>6.5</v>
+      </c>
+      <c r="AD11">
+        <v>26</v>
+      </c>
+      <c r="AE11">
+        <v>52</v>
+      </c>
+      <c r="AF11">
+        <v>7</v>
+      </c>
+      <c r="AG11">
+        <v>28</v>
+      </c>
+      <c r="AH11">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>6.5</v>
+      </c>
+      <c r="AJ11">
+        <v>26</v>
+      </c>
+      <c r="AK11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="L12">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>70</v>
+      </c>
+      <c r="N12">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>60</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>2.7</v>
+      </c>
+      <c r="U12">
+        <v>13.5</v>
+      </c>
+      <c r="V12">
+        <v>45</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <v>50</v>
+      </c>
+      <c r="Z12">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AA12">
+        <v>18</v>
+      </c>
+      <c r="AB12">
+        <v>60</v>
+      </c>
+      <c r="AC12">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AD12">
+        <v>19.5</v>
+      </c>
+      <c r="AE12">
+        <v>65</v>
+      </c>
+      <c r="AF12">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="AG12">
+        <v>21</v>
+      </c>
+      <c r="AH12">
+        <v>70</v>
+      </c>
+      <c r="AI12">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AJ12">
+        <v>19.5</v>
+      </c>
+      <c r="AK12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>56</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>48</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>4.5</v>
+      </c>
+      <c r="V13">
+        <v>36</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>40</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>48</v>
+      </c>
+      <c r="AC13">
+        <v>13</v>
+      </c>
+      <c r="AD13">
+        <v>6.5</v>
+      </c>
+      <c r="AE13">
+        <v>52</v>
+      </c>
+      <c r="AF13">
+        <v>14</v>
+      </c>
+      <c r="AG13">
+        <v>7</v>
+      </c>
+      <c r="AH13">
+        <v>56</v>
+      </c>
+      <c r="AI13">
+        <v>13</v>
+      </c>
+      <c r="AJ13">
+        <v>6.5</v>
+      </c>
+      <c r="AK13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A15:AK15"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344034ED-A112-44B9-9B6D-FA45503140F4}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="133.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A48:D48"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBACA22E-7F81-4DE7-8AC8-DD512A7E7183}">
+  <dimension ref="A1:AG12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="30.26953125" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="31.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>150</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="N2" s="6">
+        <v>5.67E-2</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>4</v>
+      </c>
+      <c r="R2" s="9">
+        <v>90</v>
+      </c>
+      <c r="S2" s="9">
+        <v>130</v>
+      </c>
+      <c r="T2" s="9">
+        <v>20</v>
+      </c>
+      <c r="U2" s="9">
+        <v>60</v>
+      </c>
+      <c r="V2" s="9">
+        <v>100</v>
+      </c>
+      <c r="W2" s="9">
+        <v>700</v>
+      </c>
+      <c r="X2" s="9">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>800</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>155</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>6</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.1008</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>7</v>
+      </c>
+      <c r="L7" s="6">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="N7" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6">
+        <v>9</v>
+      </c>
+      <c r="M9" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.161</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>5</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>9</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="P12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="AB12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="AB12:AG12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>